--- a/Code/Results/Cases/Case_6_13/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_13/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.010621177112938</v>
+        <v>1.014764219896985</v>
       </c>
       <c r="D2">
-        <v>1.030207637475475</v>
+        <v>1.034048433192709</v>
       </c>
       <c r="E2">
-        <v>1.015273079892114</v>
+        <v>1.019158895235968</v>
       </c>
       <c r="F2">
-        <v>1.034350929978139</v>
+        <v>1.038258828650855</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.047885301483544</v>
+        <v>1.050082450399141</v>
       </c>
       <c r="J2">
-        <v>1.032488785902164</v>
+        <v>1.036512128098094</v>
       </c>
       <c r="K2">
-        <v>1.041261581243767</v>
+        <v>1.045052955089952</v>
       </c>
       <c r="L2">
-        <v>1.026523659404904</v>
+        <v>1.030357616104875</v>
       </c>
       <c r="M2">
-        <v>1.045351578951337</v>
+        <v>1.04920969738516</v>
       </c>
       <c r="N2">
-        <v>1.033955038406286</v>
+        <v>1.037984094209609</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.016758815502717</v>
+        <v>1.018784967257583</v>
       </c>
       <c r="D3">
-        <v>1.034961391834949</v>
+        <v>1.037130537228974</v>
       </c>
       <c r="E3">
-        <v>1.020326749048644</v>
+        <v>1.022349875265448</v>
       </c>
       <c r="F3">
-        <v>1.039635744715474</v>
+        <v>1.041841203224867</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.049735568460888</v>
+        <v>1.051282060122131</v>
       </c>
       <c r="J3">
-        <v>1.036802815202617</v>
+        <v>1.038776312709113</v>
       </c>
       <c r="K3">
-        <v>1.045165655017132</v>
+        <v>1.047309385554514</v>
       </c>
       <c r="L3">
-        <v>1.030705987188368</v>
+        <v>1.032704553928207</v>
       </c>
       <c r="M3">
-        <v>1.049785403857896</v>
+        <v>1.051965309235417</v>
       </c>
       <c r="N3">
-        <v>1.03827519412315</v>
+        <v>1.040251494222469</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.020631386795774</v>
+        <v>1.021339371262871</v>
       </c>
       <c r="D4">
-        <v>1.037963455025792</v>
+        <v>1.039091649419453</v>
       </c>
       <c r="E4">
-        <v>1.02352129624671</v>
+        <v>1.024382770809663</v>
       </c>
       <c r="F4">
-        <v>1.042975435599722</v>
+        <v>1.044122004443985</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.050892358138534</v>
+        <v>1.052036467063035</v>
       </c>
       <c r="J4">
-        <v>1.039521668579837</v>
+        <v>1.040212528928486</v>
       </c>
       <c r="K4">
-        <v>1.047624307671097</v>
+        <v>1.048740099609504</v>
       </c>
       <c r="L4">
-        <v>1.033343892127788</v>
+        <v>1.034195561003177</v>
       </c>
       <c r="M4">
-        <v>1.052581442388548</v>
+        <v>1.053715555180822</v>
       </c>
       <c r="N4">
-        <v>1.040997908584023</v>
+        <v>1.041689750033609</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.022236835831261</v>
+        <v>1.022402275619065</v>
       </c>
       <c r="D5">
-        <v>1.039208573941951</v>
+        <v>1.039908368322022</v>
       </c>
       <c r="E5">
-        <v>1.024847006953854</v>
+        <v>1.025229991652735</v>
       </c>
       <c r="F5">
-        <v>1.044361139280164</v>
+        <v>1.045072200252683</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.051369321409154</v>
+        <v>1.052348499609453</v>
       </c>
       <c r="J5">
-        <v>1.040648023453776</v>
+        <v>1.040809583940983</v>
       </c>
       <c r="K5">
-        <v>1.0486424102733</v>
+        <v>1.049334721042105</v>
       </c>
       <c r="L5">
-        <v>1.034437200075104</v>
+        <v>1.034815945275158</v>
       </c>
       <c r="M5">
-        <v>1.053740161423043</v>
+        <v>1.054443709875726</v>
       </c>
       <c r="N5">
-        <v>1.042125863011077</v>
+        <v>1.042287652932707</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.022505104169691</v>
+        <v>1.022580108829001</v>
       </c>
       <c r="D6">
-        <v>1.039416661972179</v>
+        <v>1.040045051778491</v>
       </c>
       <c r="E6">
-        <v>1.025068608829605</v>
+        <v>1.025371815675256</v>
       </c>
       <c r="F6">
-        <v>1.044592755043946</v>
+        <v>1.045231242286477</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.051448866600811</v>
+        <v>1.052400593934452</v>
       </c>
       <c r="J6">
-        <v>1.04083618737065</v>
+        <v>1.040909442515347</v>
       </c>
       <c r="K6">
-        <v>1.04881246263362</v>
+        <v>1.049434163818875</v>
       </c>
       <c r="L6">
-        <v>1.03461987188248</v>
+        <v>1.034919738172262</v>
       </c>
       <c r="M6">
-        <v>1.05393375433144</v>
+        <v>1.054565527625685</v>
       </c>
       <c r="N6">
-        <v>1.042314294142295</v>
+        <v>1.042387653317701</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.020652926213436</v>
+        <v>1.021353616477738</v>
       </c>
       <c r="D7">
-        <v>1.037980158002583</v>
+        <v>1.039102592556875</v>
       </c>
       <c r="E7">
-        <v>1.023539077322132</v>
+        <v>1.024394120235055</v>
       </c>
       <c r="F7">
-        <v>1.042994022290574</v>
+        <v>1.044134734668431</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.05089876766198</v>
+        <v>1.052040656441014</v>
       </c>
       <c r="J7">
-        <v>1.039536783482222</v>
+        <v>1.040220533019331</v>
       </c>
       <c r="K7">
-        <v>1.047637971735291</v>
+        <v>1.048748071661735</v>
       </c>
       <c r="L7">
-        <v>1.033358561639108</v>
+        <v>1.034203875664181</v>
       </c>
       <c r="M7">
-        <v>1.052596990080722</v>
+        <v>1.053725314603258</v>
       </c>
       <c r="N7">
-        <v>1.041013044951302</v>
+        <v>1.041697765491181</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.012716579705417</v>
+        <v>1.016133059629543</v>
       </c>
       <c r="D8">
-        <v>1.031829967663094</v>
+        <v>1.035097056932956</v>
       </c>
       <c r="E8">
-        <v>1.016997126213646</v>
+        <v>1.020244041123843</v>
       </c>
       <c r="F8">
-        <v>1.036154029600332</v>
+        <v>1.03947737918185</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.048519193143397</v>
+        <v>1.050492446215171</v>
       </c>
       <c r="J8">
-        <v>1.033962223660029</v>
+        <v>1.03728340660906</v>
       </c>
       <c r="K8">
-        <v>1.042595375101076</v>
+        <v>1.045821710671662</v>
       </c>
       <c r="L8">
-        <v>1.02795167939907</v>
+        <v>1.031156602218223</v>
       </c>
       <c r="M8">
-        <v>1.046865567172848</v>
+        <v>1.050147892931241</v>
       </c>
       <c r="N8">
-        <v>1.03543056861475</v>
+        <v>1.038756468024514</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9979210214772066</v>
+        <v>1.006554912571655</v>
       </c>
       <c r="D9">
-        <v>1.020389818985646</v>
+        <v>1.027774099036035</v>
       </c>
       <c r="E9">
-        <v>1.004852101299349</v>
+        <v>1.012676358840375</v>
       </c>
       <c r="F9">
-        <v>1.023448332514384</v>
+        <v>1.030973079991466</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.043999972387545</v>
+        <v>1.047592283043617</v>
       </c>
       <c r="J9">
-        <v>1.023547408039109</v>
+        <v>1.031878304594796</v>
       </c>
       <c r="K9">
-        <v>1.033160526076894</v>
+        <v>1.040432077979796</v>
       </c>
       <c r="L9">
-        <v>1.017866944023057</v>
+        <v>1.025567065210516</v>
       </c>
       <c r="M9">
-        <v>1.036172096739216</v>
+        <v>1.043582861508307</v>
       </c>
       <c r="N9">
-        <v>1.025000962761053</v>
+        <v>1.033343690145417</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9874305575700526</v>
+        <v>0.9998901699948542</v>
       </c>
       <c r="D10">
-        <v>1.012302115568582</v>
+        <v>1.022699031189454</v>
       </c>
       <c r="E10">
-        <v>0.9962809637914849</v>
+        <v>1.007444516850323</v>
       </c>
       <c r="F10">
-        <v>1.014477122270118</v>
+        <v>1.025085546759048</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.04074305130686</v>
+        <v>1.045535965838566</v>
       </c>
       <c r="J10">
-        <v>1.016151905322353</v>
+        <v>1.028108146162629</v>
       </c>
       <c r="K10">
-        <v>1.026452748100964</v>
+        <v>1.036670195445605</v>
       </c>
       <c r="L10">
-        <v>1.010717692826099</v>
+        <v>1.021680646688223</v>
       </c>
       <c r="M10">
-        <v>1.028589816627618</v>
+        <v>1.039016178737407</v>
       </c>
       <c r="N10">
-        <v>1.017594957582163</v>
+        <v>1.029568177655833</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9827187923692254</v>
+        <v>0.9969321406939738</v>
       </c>
       <c r="D11">
-        <v>1.008676734322425</v>
+        <v>1.020452073614879</v>
       </c>
       <c r="E11">
-        <v>0.9924420974986136</v>
+        <v>1.005131108566415</v>
       </c>
       <c r="F11">
-        <v>1.010458182023964</v>
+        <v>1.022480191022032</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.039268619071378</v>
+        <v>1.044614689685028</v>
       </c>
       <c r="J11">
-        <v>1.012828590212405</v>
+        <v>1.026433105480289</v>
       </c>
       <c r="K11">
-        <v>1.023436854431424</v>
+        <v>1.034998332554526</v>
       </c>
       <c r="L11">
-        <v>1.007507966284154</v>
+        <v>1.019956904114649</v>
       </c>
       <c r="M11">
-        <v>1.025185531056926</v>
+        <v>1.036990261139073</v>
       </c>
       <c r="N11">
-        <v>1.01426692298357</v>
+        <v>1.027890758223594</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9809412258073873</v>
+        <v>0.9958220224313667</v>
       </c>
       <c r="D12">
-        <v>1.007310244651846</v>
+        <v>1.019609702649265</v>
       </c>
       <c r="E12">
-        <v>0.9909955950950712</v>
+        <v>1.004264263266387</v>
       </c>
       <c r="F12">
-        <v>1.008943708050469</v>
+        <v>1.021503642171078</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.038710714743896</v>
+        <v>1.044267690909251</v>
       </c>
       <c r="J12">
-        <v>1.011574677533035</v>
+        <v>1.025804260363942</v>
       </c>
       <c r="K12">
-        <v>1.022298719353178</v>
+        <v>1.034370614019668</v>
       </c>
       <c r="L12">
-        <v>1.006297362707615</v>
+        <v>1.01931022019868</v>
       </c>
       <c r="M12">
-        <v>1.023901543487991</v>
+        <v>1.036230145316967</v>
       </c>
       <c r="N12">
-        <v>1.013011229604369</v>
+        <v>1.027261020075052</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9813237939116549</v>
+        <v>0.996060670225325</v>
       </c>
       <c r="D13">
-        <v>1.007604282890354</v>
+        <v>1.019790750266055</v>
       </c>
       <c r="E13">
-        <v>0.9913068302475956</v>
+        <v>1.004450551395356</v>
       </c>
       <c r="F13">
-        <v>1.009269573353318</v>
+        <v>1.021713520077754</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.038830860445131</v>
+        <v>1.044342342964583</v>
       </c>
       <c r="J13">
-        <v>1.011844550197226</v>
+        <v>1.0259394556797</v>
       </c>
       <c r="K13">
-        <v>1.022543683068311</v>
+        <v>1.034505569992788</v>
       </c>
       <c r="L13">
-        <v>1.006557893630418</v>
+        <v>1.019449230543458</v>
       </c>
       <c r="M13">
-        <v>1.02417786698824</v>
+        <v>1.036393541843473</v>
       </c>
       <c r="N13">
-        <v>1.013281485518698</v>
+        <v>1.027396407383666</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9825724293567601</v>
+        <v>0.9968406132124142</v>
       </c>
       <c r="D14">
-        <v>1.008564193184295</v>
+        <v>1.020382603034587</v>
       </c>
       <c r="E14">
-        <v>0.9923229576248613</v>
+        <v>1.005059610719849</v>
       </c>
       <c r="F14">
-        <v>1.010333446058002</v>
+        <v>1.022399651104549</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.03922271495495</v>
+        <v>1.044586105430021</v>
       </c>
       <c r="J14">
-        <v>1.012725346904208</v>
+        <v>1.026381262432609</v>
       </c>
       <c r="K14">
-        <v>1.023343148084276</v>
+        <v>1.034946583684313</v>
       </c>
       <c r="L14">
-        <v>1.007408279687009</v>
+        <v>1.019903581350568</v>
       </c>
       <c r="M14">
-        <v>1.025079801626522</v>
+        <v>1.036927586624436</v>
       </c>
       <c r="N14">
-        <v>1.014163533058033</v>
+        <v>1.027838841552839</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9833380608678242</v>
+        <v>0.9973196380683781</v>
       </c>
       <c r="D15">
-        <v>1.009152951751551</v>
+        <v>1.020746225925922</v>
       </c>
       <c r="E15">
-        <v>0.99294625578888</v>
+        <v>1.005433862541408</v>
       </c>
       <c r="F15">
-        <v>1.010986016269888</v>
+        <v>1.022821220516086</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.0394627744902</v>
+        <v>1.04473565519476</v>
       </c>
       <c r="J15">
-        <v>1.013265411578128</v>
+        <v>1.026652583250442</v>
       </c>
       <c r="K15">
-        <v>1.023833316444279</v>
+        <v>1.03521740896684</v>
       </c>
       <c r="L15">
-        <v>1.007929757673874</v>
+        <v>1.020182664423026</v>
       </c>
       <c r="M15">
-        <v>1.025632890737555</v>
+        <v>1.037255612580908</v>
       </c>
       <c r="N15">
-        <v>1.014704364685736</v>
+        <v>1.028110547677354</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9877395309408513</v>
+        <v>1.000084919608818</v>
       </c>
       <c r="D16">
-        <v>1.01254001074834</v>
+        <v>1.022847085727985</v>
       </c>
       <c r="E16">
-        <v>0.9965329322087485</v>
+        <v>1.007597011121054</v>
       </c>
       <c r="F16">
-        <v>1.014740892784087</v>
+        <v>1.02525724283707</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.04083950321751</v>
+        <v>1.045596444175678</v>
       </c>
       <c r="J16">
-        <v>1.016369804746524</v>
+        <v>1.028218394222642</v>
       </c>
       <c r="K16">
-        <v>1.026650459572374</v>
+        <v>1.036780224656627</v>
       </c>
       <c r="L16">
-        <v>1.010928206329439</v>
+        <v>1.021794161885331</v>
       </c>
       <c r="M16">
-        <v>1.028813089048403</v>
+        <v>1.039149583928849</v>
       </c>
       <c r="N16">
-        <v>1.01781316644851</v>
+        <v>1.029678582280736</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9904537955797905</v>
+        <v>1.00179982322691</v>
       </c>
       <c r="D17">
-        <v>1.014630699831414</v>
+        <v>1.024151444011342</v>
       </c>
       <c r="E17">
-        <v>0.9987476625676058</v>
+        <v>1.008940820508454</v>
       </c>
       <c r="F17">
-        <v>1.017059261026055</v>
+        <v>1.026770031300263</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.041685508390755</v>
+        <v>1.046128019776531</v>
       </c>
       <c r="J17">
-        <v>1.018283828496807</v>
+        <v>1.029189012151745</v>
       </c>
       <c r="K17">
-        <v>1.028386972401899</v>
+        <v>1.037748859982804</v>
       </c>
       <c r="L17">
-        <v>1.012777685483605</v>
+        <v>1.022793880021406</v>
       </c>
       <c r="M17">
-        <v>1.030774648009672</v>
+        <v>1.040324419443223</v>
       </c>
       <c r="N17">
-        <v>1.01972990833206</v>
+        <v>1.03065057859863</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9920207858593505</v>
+        <v>1.002793173645905</v>
       </c>
       <c r="D18">
-        <v>1.015838358082717</v>
+        <v>1.024907508820183</v>
       </c>
       <c r="E18">
-        <v>1.000027277714766</v>
+        <v>1.009720035281074</v>
       </c>
       <c r="F18">
-        <v>1.018398670516826</v>
+        <v>1.027647037923026</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.042172821140921</v>
+        <v>1.046435110692879</v>
       </c>
       <c r="J18">
-        <v>1.019388664790246</v>
+        <v>1.029751071971058</v>
       </c>
       <c r="K18">
-        <v>1.029389188700781</v>
+        <v>1.038309723723833</v>
       </c>
       <c r="L18">
-        <v>1.013845540326428</v>
+        <v>1.023373071328607</v>
       </c>
       <c r="M18">
-        <v>1.031907200478409</v>
+        <v>1.041005022174953</v>
       </c>
       <c r="N18">
-        <v>1.020836313619762</v>
+        <v>1.031213436607356</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9925523987671929</v>
+        <v>1.003130721770744</v>
       </c>
       <c r="D19">
-        <v>1.016248174235607</v>
+        <v>1.025164512096967</v>
       </c>
       <c r="E19">
-        <v>1.000461565032847</v>
+        <v>1.009984955845854</v>
       </c>
       <c r="F19">
-        <v>1.01885323654912</v>
+        <v>1.027945173862569</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.042337956550356</v>
+        <v>1.046539321924463</v>
       </c>
       <c r="J19">
-        <v>1.019763458552766</v>
+        <v>1.029942034857175</v>
       </c>
       <c r="K19">
-        <v>1.029729143566232</v>
+        <v>1.038500271842734</v>
       </c>
       <c r="L19">
-        <v>1.014207835337802</v>
+        <v>1.023569902237687</v>
       </c>
       <c r="M19">
-        <v>1.032291442570462</v>
+        <v>1.041236309038419</v>
       </c>
       <c r="N19">
-        <v>1.021211639632414</v>
+        <v>1.031404670682675</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9901642693187575</v>
+        <v>1.00161655022517</v>
       </c>
       <c r="D20">
-        <v>1.014407618953153</v>
+        <v>1.024011991840196</v>
       </c>
       <c r="E20">
-        <v>0.9985113146415643</v>
+        <v>1.008797121299311</v>
       </c>
       <c r="F20">
-        <v>1.016811861969511</v>
+        <v>1.026608282349194</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.041595380045396</v>
+        <v>1.046071294858346</v>
       </c>
       <c r="J20">
-        <v>1.018079678795789</v>
+        <v>1.029085298484232</v>
       </c>
       <c r="K20">
-        <v>1.028201771905234</v>
+        <v>1.037645363082044</v>
       </c>
       <c r="L20">
-        <v>1.012580391393161</v>
+        <v>1.022687027817866</v>
       </c>
       <c r="M20">
-        <v>1.030565399194737</v>
+        <v>1.040198854800392</v>
       </c>
       <c r="N20">
-        <v>1.01952546871505</v>
+        <v>1.030546717645813</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9822055107290054</v>
+        <v>0.9966112578887812</v>
       </c>
       <c r="D21">
-        <v>1.008282083141442</v>
+        <v>1.020208533820487</v>
       </c>
       <c r="E21">
-        <v>0.9920243135628175</v>
+        <v>1.004880468908223</v>
       </c>
       <c r="F21">
-        <v>1.010020772591325</v>
+        <v>1.022197848872619</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.03910761116357</v>
+        <v>1.044514457152953</v>
       </c>
       <c r="J21">
-        <v>1.012466523254404</v>
+        <v>1.026251347461599</v>
       </c>
       <c r="K21">
-        <v>1.023108229562163</v>
+        <v>1.034816903674636</v>
       </c>
       <c r="L21">
-        <v>1.007158379760612</v>
+        <v>1.019769965490482</v>
       </c>
       <c r="M21">
-        <v>1.024814753213421</v>
+        <v>1.036770536128677</v>
       </c>
       <c r="N21">
-        <v>1.013904341848958</v>
+        <v>1.027708742087669</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9770418265974228</v>
+        <v>0.9933981340770608</v>
       </c>
       <c r="D22">
-        <v>1.004315044748536</v>
+        <v>1.017772129403879</v>
       </c>
       <c r="E22">
-        <v>0.9878258193164028</v>
+        <v>1.002374096820724</v>
       </c>
       <c r="F22">
-        <v>1.005624782124556</v>
+        <v>1.019373690116727</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.037483899175977</v>
+        <v>1.043507780030562</v>
       </c>
       <c r="J22">
-        <v>1.008823827782625</v>
+        <v>1.024430849535854</v>
       </c>
       <c r="K22">
-        <v>1.019801501696161</v>
+        <v>1.032999551296493</v>
       </c>
       <c r="L22">
-        <v>1.003642369411651</v>
+        <v>1.01789866864601</v>
       </c>
       <c r="M22">
-        <v>1.021085628487466</v>
+        <v>1.034570878539064</v>
       </c>
       <c r="N22">
-        <v>1.010256473331786</v>
+        <v>1.025885658846055</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9797950420761783</v>
+        <v>0.9951079241638371</v>
       </c>
       <c r="D23">
-        <v>1.006429490285902</v>
+        <v>1.019068094607582</v>
       </c>
       <c r="E23">
-        <v>0.9900633938536137</v>
+        <v>1.003707041682997</v>
       </c>
       <c r="F23">
-        <v>1.007967670846587</v>
+        <v>1.020875813423746</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.038350518957366</v>
+        <v>1.044044131532462</v>
       </c>
       <c r="J23">
-        <v>1.01076611707707</v>
+        <v>1.025399690634276</v>
       </c>
       <c r="K23">
-        <v>1.021564758961272</v>
+        <v>1.033966751460176</v>
       </c>
       <c r="L23">
-        <v>1.005516857913813</v>
+        <v>1.018894299383595</v>
       </c>
       <c r="M23">
-        <v>1.023073728094165</v>
+        <v>1.035741251021506</v>
       </c>
       <c r="N23">
-        <v>1.012201520899814</v>
+        <v>1.026855875809965</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9902951436734208</v>
+        <v>1.001699384763985</v>
       </c>
       <c r="D24">
-        <v>1.014508455983513</v>
+        <v>1.024075018914949</v>
       </c>
       <c r="E24">
-        <v>0.9986181476914966</v>
+        <v>1.008862066998311</v>
       </c>
       <c r="F24">
-        <v>1.016923690572332</v>
+        <v>1.026681386327604</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.041636124119511</v>
+        <v>1.046096935568321</v>
       </c>
       <c r="J24">
-        <v>1.018171960951652</v>
+        <v>1.029132174831447</v>
       </c>
       <c r="K24">
-        <v>1.02828548890135</v>
+        <v>1.037692141604796</v>
       </c>
       <c r="L24">
-        <v>1.012669573739915</v>
+        <v>1.022735321847096</v>
       </c>
       <c r="M24">
-        <v>1.03065998545376</v>
+        <v>1.040255606432955</v>
       </c>
       <c r="N24">
-        <v>1.01961788192216</v>
+        <v>1.030593660562819</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.00185005882735</v>
+        <v>1.009078436591185</v>
       </c>
       <c r="D25">
-        <v>1.023424235186476</v>
+        <v>1.0297001351868</v>
       </c>
       <c r="E25">
-        <v>1.008070832151954</v>
+        <v>1.014664513041779</v>
       </c>
       <c r="F25">
-        <v>1.026816454590164</v>
+        <v>1.033208690093753</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.04520936912928</v>
+        <v>1.04836314842569</v>
       </c>
       <c r="J25">
-        <v>1.026315321121365</v>
+        <v>1.033304090706552</v>
       </c>
       <c r="K25">
-        <v>1.03566948567492</v>
+        <v>1.041854248536036</v>
       </c>
       <c r="L25">
-        <v>1.020545137608546</v>
+        <v>1.027039367975887</v>
       </c>
       <c r="M25">
-        <v>1.039012268667457</v>
+        <v>1.045312463741251</v>
       </c>
       <c r="N25">
-        <v>1.027772806597369</v>
+        <v>1.034771501036991</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_13/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_13/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,46 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.014764219896985</v>
+        <v>1.009725549166756</v>
       </c>
       <c r="D2">
-        <v>1.034048433192709</v>
+        <v>1.030456981330657</v>
       </c>
       <c r="E2">
-        <v>1.019158895235968</v>
+        <v>1.014866224672556</v>
       </c>
       <c r="F2">
-        <v>1.038258828650855</v>
+        <v>1.034449247864976</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.050082450399141</v>
+        <v>1.047866524537299</v>
       </c>
       <c r="J2">
-        <v>1.036512128098094</v>
+        <v>1.031619211521943</v>
       </c>
       <c r="K2">
-        <v>1.045052955089952</v>
+        <v>1.041507702648693</v>
       </c>
       <c r="L2">
-        <v>1.030357616104875</v>
+        <v>1.026122262782205</v>
       </c>
       <c r="M2">
-        <v>1.04920969738516</v>
+        <v>1.045448638665174</v>
       </c>
       <c r="N2">
-        <v>1.037984094209609</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.014430036896613</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.040419823046499</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +480,46 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.018784967257583</v>
+        <v>1.013036028081203</v>
       </c>
       <c r="D3">
-        <v>1.037130537228974</v>
+        <v>1.0327249921465</v>
       </c>
       <c r="E3">
-        <v>1.022349875265448</v>
+        <v>1.017433022850876</v>
       </c>
       <c r="F3">
-        <v>1.041841203224867</v>
+        <v>1.037265410346644</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.051282060122131</v>
+        <v>1.048629718656391</v>
       </c>
       <c r="J3">
-        <v>1.038776312709113</v>
+        <v>1.033177517923775</v>
       </c>
       <c r="K3">
-        <v>1.047309385554514</v>
+        <v>1.042955596595288</v>
       </c>
       <c r="L3">
-        <v>1.032704553928207</v>
+        <v>1.027847600104801</v>
       </c>
       <c r="M3">
-        <v>1.051965309235417</v>
+        <v>1.047442682769247</v>
       </c>
       <c r="N3">
-        <v>1.040251494222469</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.014954453320265</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.04144094581269</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +527,46 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.021339371262871</v>
+        <v>1.015145117039896</v>
       </c>
       <c r="D4">
-        <v>1.039091649419453</v>
+        <v>1.034174317386059</v>
       </c>
       <c r="E4">
-        <v>1.024382770809663</v>
+        <v>1.019074029161956</v>
       </c>
       <c r="F4">
-        <v>1.044122004443985</v>
+        <v>1.039065211815136</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.052036467063035</v>
+        <v>1.049109350618534</v>
       </c>
       <c r="J4">
-        <v>1.040212528928486</v>
+        <v>1.034169186193111</v>
       </c>
       <c r="K4">
-        <v>1.048740099609504</v>
+        <v>1.043877068317454</v>
       </c>
       <c r="L4">
-        <v>1.034195561003177</v>
+        <v>1.028947571440088</v>
       </c>
       <c r="M4">
-        <v>1.053715555180822</v>
+        <v>1.048713952260243</v>
       </c>
       <c r="N4">
-        <v>1.041689750033609</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.015288167237634</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.042093394697041</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +574,46 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.022402275619065</v>
+        <v>1.016026758288733</v>
       </c>
       <c r="D5">
-        <v>1.039908368322022</v>
+        <v>1.034783168200515</v>
       </c>
       <c r="E5">
-        <v>1.025229991652735</v>
+        <v>1.019761654322098</v>
       </c>
       <c r="F5">
-        <v>1.045072200252683</v>
+        <v>1.039820060018258</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.052348499609453</v>
+        <v>1.049309617948906</v>
       </c>
       <c r="J5">
-        <v>1.040809583940983</v>
+        <v>1.034584788563367</v>
       </c>
       <c r="K5">
-        <v>1.049334721042105</v>
+        <v>1.044264617288287</v>
       </c>
       <c r="L5">
-        <v>1.034815945275158</v>
+        <v>1.02940851202341</v>
       </c>
       <c r="M5">
-        <v>1.054443709875726</v>
+        <v>1.049247356428485</v>
       </c>
       <c r="N5">
-        <v>1.042287652932707</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.015428217163944</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.042374570296359</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +621,46 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.022580108829001</v>
+        <v>1.016177600837795</v>
       </c>
       <c r="D6">
-        <v>1.040045051778491</v>
+        <v>1.034889799845204</v>
       </c>
       <c r="E6">
-        <v>1.025371815675256</v>
+        <v>1.019879750641528</v>
       </c>
       <c r="F6">
-        <v>1.045231242286477</v>
+        <v>1.039950702982807</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.052400593934452</v>
+        <v>1.049345466528176</v>
       </c>
       <c r="J6">
-        <v>1.040909442515347</v>
+        <v>1.034657522847767</v>
       </c>
       <c r="K6">
-        <v>1.049434163818875</v>
+        <v>1.044334078869934</v>
       </c>
       <c r="L6">
-        <v>1.034919738172262</v>
+        <v>1.02948856028458</v>
       </c>
       <c r="M6">
-        <v>1.054565527625685</v>
+        <v>1.049340818646509</v>
       </c>
       <c r="N6">
-        <v>1.042387653317701</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.015452965880906</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.042432401540325</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +668,46 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.021353616477738</v>
+        <v>1.015165683211912</v>
       </c>
       <c r="D7">
-        <v>1.039102592556875</v>
+        <v>1.034194942325163</v>
       </c>
       <c r="E7">
-        <v>1.024394120235055</v>
+        <v>1.019091061841578</v>
       </c>
       <c r="F7">
-        <v>1.044134734668431</v>
+        <v>1.039086604723994</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.052040656441014</v>
+        <v>1.049118533384162</v>
       </c>
       <c r="J7">
-        <v>1.040220533019331</v>
+        <v>1.034183295402629</v>
       </c>
       <c r="K7">
-        <v>1.048748071661735</v>
+        <v>1.043894595190181</v>
       </c>
       <c r="L7">
-        <v>1.034203875664181</v>
+        <v>1.028961481956166</v>
       </c>
       <c r="M7">
-        <v>1.053725314603258</v>
+        <v>1.048732259292121</v>
       </c>
       <c r="N7">
-        <v>1.041697765491181</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.015293571281389</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.042125835922457</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +715,46 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.016133059629543</v>
+        <v>1.010862239181568</v>
       </c>
       <c r="D8">
-        <v>1.035097056932956</v>
+        <v>1.031242743652658</v>
       </c>
       <c r="E8">
-        <v>1.020244041123843</v>
+        <v>1.015747656176749</v>
       </c>
       <c r="F8">
-        <v>1.03947737918185</v>
+        <v>1.03541972530484</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.050492446215171</v>
+        <v>1.048135488273191</v>
       </c>
       <c r="J8">
-        <v>1.03728340660906</v>
+        <v>1.032159975469668</v>
       </c>
       <c r="K8">
-        <v>1.045821710671662</v>
+        <v>1.042015510263549</v>
       </c>
       <c r="L8">
-        <v>1.031156602218223</v>
+        <v>1.026718458231054</v>
       </c>
       <c r="M8">
-        <v>1.050147892931241</v>
+        <v>1.046140371456322</v>
       </c>
       <c r="N8">
-        <v>1.038756468024514</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.01461286866585</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.040801727266212</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +762,46 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.006554912571655</v>
+        <v>1.003002383023679</v>
       </c>
       <c r="D9">
-        <v>1.027774099036035</v>
+        <v>1.025876596053233</v>
       </c>
       <c r="E9">
-        <v>1.012676358840375</v>
+        <v>1.00968587772262</v>
       </c>
       <c r="F9">
-        <v>1.030973079991466</v>
+        <v>1.028762240795173</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.047592283043617</v>
+        <v>1.046281995699823</v>
       </c>
       <c r="J9">
-        <v>1.031878304594796</v>
+        <v>1.028449563076198</v>
       </c>
       <c r="K9">
-        <v>1.040432077979796</v>
+        <v>1.03856334473331</v>
       </c>
       <c r="L9">
-        <v>1.025567065210516</v>
+        <v>1.022623738926673</v>
       </c>
       <c r="M9">
-        <v>1.043582861508307</v>
+        <v>1.041405291161073</v>
       </c>
       <c r="N9">
-        <v>1.033343690145417</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.013363448334048</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.038357663768934</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +809,46 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9998901699948542</v>
+        <v>0.9975745992248511</v>
       </c>
       <c r="D10">
-        <v>1.022699031189454</v>
+        <v>1.022199492936494</v>
       </c>
       <c r="E10">
-        <v>1.007444516850323</v>
+        <v>1.005533390790103</v>
       </c>
       <c r="F10">
-        <v>1.025085546759048</v>
+        <v>1.024199008926351</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.045535965838566</v>
+        <v>1.044970811765748</v>
       </c>
       <c r="J10">
-        <v>1.028108146162629</v>
+        <v>1.025884777764687</v>
       </c>
       <c r="K10">
-        <v>1.036670195445605</v>
+        <v>1.036179172225782</v>
       </c>
       <c r="L10">
-        <v>1.021680646688223</v>
+        <v>1.019803451740042</v>
       </c>
       <c r="M10">
-        <v>1.039016178737407</v>
+        <v>1.038144669285594</v>
       </c>
       <c r="N10">
-        <v>1.029568177655833</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.012500161424994</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.036688691294712</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +856,46 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9969321406939738</v>
+        <v>0.995186944791397</v>
       </c>
       <c r="D11">
-        <v>1.020452073614879</v>
+        <v>1.020596436532073</v>
       </c>
       <c r="E11">
-        <v>1.005131108566415</v>
+        <v>1.003716518023066</v>
       </c>
       <c r="F11">
-        <v>1.022480191022032</v>
+        <v>1.022204581369249</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.044614689685028</v>
+        <v>1.044392029610285</v>
       </c>
       <c r="J11">
-        <v>1.026433105480289</v>
+        <v>1.024761332380904</v>
       </c>
       <c r="K11">
-        <v>1.034998332554526</v>
+        <v>1.03514011334975</v>
       </c>
       <c r="L11">
-        <v>1.019956904114649</v>
+        <v>1.018568684958038</v>
       </c>
       <c r="M11">
-        <v>1.036990261139073</v>
+        <v>1.036719558397803</v>
       </c>
       <c r="N11">
-        <v>1.027890758223594</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.012123043369849</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.035986825981521</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +903,46 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9958220224313667</v>
+        <v>0.994286316631652</v>
       </c>
       <c r="D12">
-        <v>1.019609702649265</v>
+        <v>1.019988473086391</v>
       </c>
       <c r="E12">
-        <v>1.004264263266387</v>
+        <v>1.003031648667361</v>
       </c>
       <c r="F12">
-        <v>1.021503642171078</v>
+        <v>1.021450946658175</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.044267690909251</v>
+        <v>1.044169643260197</v>
       </c>
       <c r="J12">
-        <v>1.025804260363942</v>
+        <v>1.02433447384199</v>
       </c>
       <c r="K12">
-        <v>1.034370614019668</v>
+        <v>1.034742489828124</v>
       </c>
       <c r="L12">
-        <v>1.01931022019868</v>
+        <v>1.018100996646414</v>
       </c>
       <c r="M12">
-        <v>1.036230145316967</v>
+        <v>1.036178404907436</v>
       </c>
       <c r="N12">
-        <v>1.027261020075052</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.011979233189434</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.03570569394594</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +950,46 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.996060670225325</v>
+        <v>0.9944786338248025</v>
       </c>
       <c r="D13">
-        <v>1.019790750266055</v>
+        <v>1.020117401528887</v>
       </c>
       <c r="E13">
-        <v>1.004450551395356</v>
+        <v>1.003177669942119</v>
       </c>
       <c r="F13">
-        <v>1.021713520077754</v>
+        <v>1.021611306305489</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.044342342964583</v>
+        <v>1.044216597556249</v>
       </c>
       <c r="J13">
-        <v>1.0259394556797</v>
+        <v>1.024425036754895</v>
       </c>
       <c r="K13">
-        <v>1.034505569992788</v>
+        <v>1.034826297545886</v>
       </c>
       <c r="L13">
-        <v>1.019449230543458</v>
+        <v>1.018200412755726</v>
       </c>
       <c r="M13">
-        <v>1.036393541843473</v>
+        <v>1.036293173632892</v>
       </c>
       <c r="N13">
-        <v>1.027396407383666</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.012009638604485</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.035762458412997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +997,46 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9968406132124142</v>
+        <v>0.99511213511057</v>
       </c>
       <c r="D14">
-        <v>1.020382603034587</v>
+        <v>1.020545553320558</v>
       </c>
       <c r="E14">
-        <v>1.005059610719849</v>
+        <v>1.003659533405824</v>
       </c>
       <c r="F14">
-        <v>1.022399651104549</v>
+        <v>1.022141736914129</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.044586105430021</v>
+        <v>1.04437333064238</v>
       </c>
       <c r="J14">
-        <v>1.026381262432609</v>
+        <v>1.024725625157151</v>
       </c>
       <c r="K14">
-        <v>1.034946583684313</v>
+        <v>1.035106615138019</v>
       </c>
       <c r="L14">
-        <v>1.019903581350568</v>
+        <v>1.018529643444272</v>
       </c>
       <c r="M14">
-        <v>1.036927586624436</v>
+        <v>1.03667427112354</v>
       </c>
       <c r="N14">
-        <v>1.027838841552839</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.012110968555495</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.035962074946124</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1044,46 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9973196380683781</v>
+        <v>0.9955038560443018</v>
       </c>
       <c r="D15">
-        <v>1.020746225925922</v>
+        <v>1.020812121249577</v>
       </c>
       <c r="E15">
-        <v>1.005433862541408</v>
+        <v>1.003957987688051</v>
       </c>
       <c r="F15">
-        <v>1.022821220516086</v>
+        <v>1.022470910989212</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.04473565519476</v>
+        <v>1.044471258695736</v>
       </c>
       <c r="J15">
-        <v>1.026652583250442</v>
+        <v>1.024912654428917</v>
       </c>
       <c r="K15">
-        <v>1.03521740896684</v>
+        <v>1.035282132940319</v>
       </c>
       <c r="L15">
-        <v>1.020182664423026</v>
+        <v>1.018734131309767</v>
       </c>
       <c r="M15">
-        <v>1.037255612580908</v>
+        <v>1.036911500675401</v>
       </c>
       <c r="N15">
-        <v>1.028110547677354</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.012174225312267</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.036092036937857</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1091,46 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.000084919608818</v>
+        <v>0.9977528221502079</v>
       </c>
       <c r="D16">
-        <v>1.022847085727985</v>
+        <v>1.022333953623735</v>
       </c>
       <c r="E16">
-        <v>1.007597011121054</v>
+        <v>1.005671982860552</v>
       </c>
       <c r="F16">
-        <v>1.02525724283707</v>
+        <v>1.024356887579324</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.045596444175678</v>
+        <v>1.04502393118835</v>
       </c>
       <c r="J16">
-        <v>1.028218394222642</v>
+        <v>1.025978810837381</v>
       </c>
       <c r="K16">
-        <v>1.036780224656627</v>
+        <v>1.036275810642857</v>
       </c>
       <c r="L16">
-        <v>1.021794161885331</v>
+        <v>1.019903198478061</v>
       </c>
       <c r="M16">
-        <v>1.039149583928849</v>
+        <v>1.038264440412217</v>
       </c>
       <c r="N16">
-        <v>1.029678582280736</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.012533514521974</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.036797764831019</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1138,46 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.00179982322691</v>
+        <v>0.9991501818929514</v>
       </c>
       <c r="D17">
-        <v>1.024151444011342</v>
+        <v>1.023281288835213</v>
       </c>
       <c r="E17">
-        <v>1.008940820508454</v>
+        <v>1.006739163350641</v>
       </c>
       <c r="F17">
-        <v>1.026770031300263</v>
+        <v>1.025530899935431</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.046128019776531</v>
+        <v>1.045365346276298</v>
       </c>
       <c r="J17">
-        <v>1.029189012151745</v>
+        <v>1.026641056573884</v>
       </c>
       <c r="K17">
-        <v>1.037748859982804</v>
+        <v>1.036893065663469</v>
       </c>
       <c r="L17">
-        <v>1.022793880021406</v>
+        <v>1.020630053476204</v>
       </c>
       <c r="M17">
-        <v>1.040324419443223</v>
+        <v>1.039105613885021</v>
       </c>
       <c r="N17">
-        <v>1.03065057859863</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.012756690608978</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.037236770151327</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1185,46 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.002793173645905</v>
+        <v>0.9999541307770465</v>
       </c>
       <c r="D18">
-        <v>1.024907508820183</v>
+        <v>1.02382244975876</v>
       </c>
       <c r="E18">
-        <v>1.009720035281074</v>
+        <v>1.007353092457955</v>
       </c>
       <c r="F18">
-        <v>1.027647037923026</v>
+        <v>1.0262044220595</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.046435110692879</v>
+        <v>1.045557958210855</v>
       </c>
       <c r="J18">
-        <v>1.029751071971058</v>
+        <v>1.027018871108053</v>
       </c>
       <c r="K18">
-        <v>1.038309723723833</v>
+        <v>1.037242267371625</v>
       </c>
       <c r="L18">
-        <v>1.023373071328607</v>
+        <v>1.02104609765795</v>
       </c>
       <c r="M18">
-        <v>1.041005022174953</v>
+        <v>1.039585660065926</v>
       </c>
       <c r="N18">
-        <v>1.031213436607356</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.012883478052992</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.037472045497156</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1232,46 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.003130721770744</v>
+        <v>1.000232405500692</v>
       </c>
       <c r="D19">
-        <v>1.025164512096967</v>
+        <v>1.024013362755423</v>
       </c>
       <c r="E19">
-        <v>1.009984955845854</v>
+        <v>1.007566377399521</v>
       </c>
       <c r="F19">
-        <v>1.027945173862569</v>
+        <v>1.026439779668123</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.046539321924463</v>
+        <v>1.045626915557498</v>
       </c>
       <c r="J19">
-        <v>1.029942034857175</v>
+        <v>1.027152059803138</v>
       </c>
       <c r="K19">
-        <v>1.038500271842734</v>
+        <v>1.037367687399334</v>
       </c>
       <c r="L19">
-        <v>1.023569902237687</v>
+        <v>1.021191921323749</v>
       </c>
       <c r="M19">
-        <v>1.041236309038419</v>
+        <v>1.039755035187192</v>
       </c>
       <c r="N19">
-        <v>1.031404670682675</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.012928594435258</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.037567104873237</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1279,46 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.00161655022517</v>
+        <v>0.9990002512300715</v>
       </c>
       <c r="D20">
-        <v>1.024011991840196</v>
+        <v>1.023179230200081</v>
       </c>
       <c r="E20">
-        <v>1.008797121299311</v>
+        <v>1.006624512217825</v>
       </c>
       <c r="F20">
-        <v>1.026608282349194</v>
+        <v>1.025404643153563</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.046071294858346</v>
+        <v>1.045328548272116</v>
       </c>
       <c r="J20">
-        <v>1.029085298484232</v>
+        <v>1.026569765987475</v>
       </c>
       <c r="K20">
-        <v>1.037645363082044</v>
+        <v>1.036826388404126</v>
       </c>
       <c r="L20">
-        <v>1.022687027817866</v>
+        <v>1.020551869208684</v>
       </c>
       <c r="M20">
-        <v>1.040198854800392</v>
+        <v>1.03901502243738</v>
       </c>
       <c r="N20">
-        <v>1.030546717645813</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.012732623761786</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.037188293424258</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1326,46 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9966112578887812</v>
+        <v>0.9949326582783286</v>
       </c>
       <c r="D21">
-        <v>1.020208533820487</v>
+        <v>1.020428977338862</v>
       </c>
       <c r="E21">
-        <v>1.004880468908223</v>
+        <v>1.003523905292823</v>
       </c>
       <c r="F21">
-        <v>1.022197848872619</v>
+        <v>1.021994293135196</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.044514457152953</v>
+        <v>1.044332225063123</v>
       </c>
       <c r="J21">
-        <v>1.026251347461599</v>
+        <v>1.024643781458364</v>
       </c>
       <c r="K21">
-        <v>1.034816903674636</v>
+        <v>1.035033384163048</v>
       </c>
       <c r="L21">
-        <v>1.019769965490482</v>
+        <v>1.018438822349325</v>
       </c>
       <c r="M21">
-        <v>1.036770536128677</v>
+        <v>1.036570623310379</v>
       </c>
       <c r="N21">
-        <v>1.027708742087669</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.01208396768299</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.035923795907853</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1373,46 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9933981340770608</v>
+        <v>0.9923220126409122</v>
       </c>
       <c r="D22">
-        <v>1.017772129403879</v>
+        <v>1.018663848539961</v>
       </c>
       <c r="E22">
-        <v>1.002374096820724</v>
+        <v>1.00154020965264</v>
       </c>
       <c r="F22">
-        <v>1.019373690116727</v>
+        <v>1.019809271199418</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.043507780030562</v>
+        <v>1.043682225522215</v>
       </c>
       <c r="J22">
-        <v>1.024430849535854</v>
+        <v>1.023402938830471</v>
       </c>
       <c r="K22">
-        <v>1.032999551296493</v>
+        <v>1.033874421672532</v>
       </c>
       <c r="L22">
-        <v>1.01789866864601</v>
+        <v>1.017081216313271</v>
       </c>
       <c r="M22">
-        <v>1.034570878539064</v>
+        <v>1.034998258393266</v>
       </c>
       <c r="N22">
-        <v>1.025885658846055</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.011665332917747</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.035090874397909</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1420,46 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9951079241638371</v>
+        <v>0.9937020844703419</v>
       </c>
       <c r="D23">
-        <v>1.019068094607582</v>
+        <v>1.019590692921339</v>
       </c>
       <c r="E23">
-        <v>1.003707041682997</v>
+        <v>1.002587023597718</v>
       </c>
       <c r="F23">
-        <v>1.020875813423746</v>
+        <v>1.020960201998267</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.044044131532462</v>
+        <v>1.044022531234772</v>
       </c>
       <c r="J23">
-        <v>1.025399690634276</v>
+        <v>1.024054970563127</v>
       </c>
       <c r="K23">
-        <v>1.033966751460176</v>
+        <v>1.034479730559561</v>
       </c>
       <c r="L23">
-        <v>1.018894299383595</v>
+        <v>1.017795776972528</v>
       </c>
       <c r="M23">
-        <v>1.035741251021506</v>
+        <v>1.035824092585744</v>
       </c>
       <c r="N23">
-        <v>1.026855875809965</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.011884606956927</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.035509230938914</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1467,46 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.001699384763985</v>
+        <v>0.9990545546855141</v>
       </c>
       <c r="D24">
-        <v>1.024075018914949</v>
+        <v>1.023206788192509</v>
       </c>
       <c r="E24">
-        <v>1.008862066998311</v>
+        <v>1.006664275564709</v>
       </c>
       <c r="F24">
-        <v>1.026681386327604</v>
+        <v>1.025444719908368</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.046096935568321</v>
+        <v>1.045335388751149</v>
       </c>
       <c r="J24">
-        <v>1.029132174831447</v>
+        <v>1.026589047387592</v>
       </c>
       <c r="K24">
-        <v>1.037692141604796</v>
+        <v>1.036838265018568</v>
       </c>
       <c r="L24">
-        <v>1.022735321847096</v>
+        <v>1.020575361147294</v>
       </c>
       <c r="M24">
-        <v>1.040255606432955</v>
+        <v>1.039039261410674</v>
       </c>
       <c r="N24">
-        <v>1.030593660562819</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.012738008403642</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.03716933394463</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1514,43 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.009078436591185</v>
+        <v>1.005080886185647</v>
       </c>
       <c r="D25">
-        <v>1.0297001351868</v>
+        <v>1.027301166036571</v>
       </c>
       <c r="E25">
-        <v>1.014664513041779</v>
+        <v>1.011285002755296</v>
       </c>
       <c r="F25">
-        <v>1.033208690093753</v>
+        <v>1.030523143566915</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.04836314842569</v>
+        <v>1.046784873296299</v>
       </c>
       <c r="J25">
-        <v>1.033304090706552</v>
+        <v>1.029438459824807</v>
       </c>
       <c r="K25">
-        <v>1.041854248536036</v>
+        <v>1.039489949981593</v>
       </c>
       <c r="L25">
-        <v>1.027039367975887</v>
+        <v>1.02371062351985</v>
       </c>
       <c r="M25">
-        <v>1.045312463741251</v>
+        <v>1.042665409662911</v>
       </c>
       <c r="N25">
-        <v>1.034771501036991</v>
+        <v>1.013697566165025</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.039041348157896</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_13/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_13/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,46 +439,55 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.009725549166756</v>
+        <v>1.009216704786426</v>
       </c>
       <c r="D2">
-        <v>1.030456981330657</v>
+        <v>1.029402336595514</v>
       </c>
       <c r="E2">
-        <v>1.014866224672556</v>
+        <v>1.014432009349507</v>
       </c>
       <c r="F2">
-        <v>1.034449247864976</v>
+        <v>1.033553465909002</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.047866524537299</v>
+        <v>1.047410530733935</v>
       </c>
       <c r="J2">
-        <v>1.031619211521943</v>
+        <v>1.031125197539477</v>
       </c>
       <c r="K2">
-        <v>1.041507702648693</v>
+        <v>1.040466701191554</v>
       </c>
       <c r="L2">
-        <v>1.026122262782205</v>
+        <v>1.025693879204411</v>
       </c>
       <c r="M2">
-        <v>1.045448638665174</v>
+        <v>1.044564331078914</v>
       </c>
       <c r="N2">
-        <v>1.014430036896613</v>
+        <v>1.015445575827029</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.040419823046499</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.039692501750062</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.022804195750014</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -480,46 +495,55 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.013036028081203</v>
+        <v>1.012416443016232</v>
       </c>
       <c r="D3">
-        <v>1.0327249921465</v>
+        <v>1.031518917291141</v>
       </c>
       <c r="E3">
-        <v>1.017433022850876</v>
+        <v>1.016901799629742</v>
       </c>
       <c r="F3">
-        <v>1.037265410346644</v>
+        <v>1.036232493958301</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.048629718656391</v>
+        <v>1.048097128992463</v>
       </c>
       <c r="J3">
-        <v>1.033177517923775</v>
+        <v>1.032574252611869</v>
       </c>
       <c r="K3">
-        <v>1.042955596595288</v>
+        <v>1.041763786131587</v>
       </c>
       <c r="L3">
-        <v>1.027847600104801</v>
+        <v>1.02732289152884</v>
       </c>
       <c r="M3">
-        <v>1.047442682769247</v>
+        <v>1.046421848264986</v>
       </c>
       <c r="N3">
-        <v>1.014954453320265</v>
+        <v>1.015833078509024</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.04144094581269</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.040606714823052</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.023052905594505</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -527,46 +551,55 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.015145117039896</v>
+        <v>1.01445560685417</v>
       </c>
       <c r="D4">
-        <v>1.034174317386059</v>
+        <v>1.032872158220581</v>
       </c>
       <c r="E4">
-        <v>1.019074029161956</v>
+        <v>1.018481474706287</v>
       </c>
       <c r="F4">
-        <v>1.039065211815136</v>
+        <v>1.03794544227375</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.049109350618534</v>
+        <v>1.048528127880651</v>
       </c>
       <c r="J4">
-        <v>1.034169186193111</v>
+        <v>1.033496628142809</v>
       </c>
       <c r="K4">
-        <v>1.043877068317454</v>
+        <v>1.042589395059171</v>
       </c>
       <c r="L4">
-        <v>1.028947571440088</v>
+        <v>1.028361846575233</v>
       </c>
       <c r="M4">
-        <v>1.048713952260243</v>
+        <v>1.047606493205343</v>
       </c>
       <c r="N4">
-        <v>1.015288167237634</v>
+        <v>1.016079760525833</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.042093394697041</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.041191463652694</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.023209011128134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -574,46 +607,55 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.016026758288733</v>
+        <v>1.015308166813801</v>
       </c>
       <c r="D5">
-        <v>1.034783168200515</v>
+        <v>1.033440987572302</v>
       </c>
       <c r="E5">
-        <v>1.019761654322098</v>
+        <v>1.01914357552661</v>
       </c>
       <c r="F5">
-        <v>1.039820060018258</v>
+        <v>1.038664140712213</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.049309617948906</v>
+        <v>1.048708120253335</v>
       </c>
       <c r="J5">
-        <v>1.034584788563367</v>
+        <v>1.033883344433164</v>
       </c>
       <c r="K5">
-        <v>1.044264617288287</v>
+        <v>1.042936975980113</v>
       </c>
       <c r="L5">
-        <v>1.02940851202341</v>
+        <v>1.028797367755239</v>
       </c>
       <c r="M5">
-        <v>1.049247356428485</v>
+        <v>1.048103807764281</v>
       </c>
       <c r="N5">
-        <v>1.015428217163944</v>
+        <v>1.016183345241021</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.042374570296359</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.041445089527024</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.023274618025071</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -621,46 +663,55 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.016177600837795</v>
+        <v>1.015454048576504</v>
       </c>
       <c r="D6">
-        <v>1.034889799845204</v>
+        <v>1.033540841000445</v>
       </c>
       <c r="E6">
-        <v>1.019879750641528</v>
+        <v>1.019257315583419</v>
       </c>
       <c r="F6">
-        <v>1.039950702982807</v>
+        <v>1.038788651308974</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.049345466528176</v>
+        <v>1.048740521091978</v>
       </c>
       <c r="J6">
-        <v>1.034657522847767</v>
+        <v>1.033951148883245</v>
       </c>
       <c r="K6">
-        <v>1.044334078869934</v>
+        <v>1.042999666771942</v>
       </c>
       <c r="L6">
-        <v>1.02948856028458</v>
+        <v>1.028873076727125</v>
       </c>
       <c r="M6">
-        <v>1.049340818646509</v>
+        <v>1.048191146454997</v>
       </c>
       <c r="N6">
-        <v>1.015452965880906</v>
+        <v>1.016201696694305</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.042432401540325</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.041499001663267</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.023286931285919</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -668,46 +719,55 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.015165683211912</v>
+        <v>1.014481995434416</v>
       </c>
       <c r="D7">
-        <v>1.034194942325163</v>
+        <v>1.032896738104419</v>
       </c>
       <c r="E7">
-        <v>1.019091061841578</v>
+        <v>1.01850368788169</v>
       </c>
       <c r="F7">
-        <v>1.039086604723994</v>
+        <v>1.037971156081416</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.049118533384162</v>
+        <v>1.048540047452772</v>
       </c>
       <c r="J7">
-        <v>1.034183295402629</v>
+        <v>1.033516409437476</v>
       </c>
       <c r="K7">
-        <v>1.043894595190181</v>
+        <v>1.042610827292055</v>
       </c>
       <c r="L7">
-        <v>1.028961481956166</v>
+        <v>1.028380875292236</v>
       </c>
       <c r="M7">
-        <v>1.048732259292121</v>
+        <v>1.047629068870283</v>
       </c>
       <c r="N7">
-        <v>1.015293571281389</v>
+        <v>1.016111290041169</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.042125835922457</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.041228664058982</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.023214952063539</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -715,46 +775,55 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.010862239181568</v>
+        <v>1.010335173048502</v>
       </c>
       <c r="D8">
-        <v>1.031242743652658</v>
+        <v>1.030150754389532</v>
       </c>
       <c r="E8">
-        <v>1.015747656176749</v>
+        <v>1.015297765322292</v>
       </c>
       <c r="F8">
-        <v>1.03541972530484</v>
+        <v>1.034492426999244</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.048135488273191</v>
+        <v>1.047662942948516</v>
       </c>
       <c r="J8">
-        <v>1.032159975469668</v>
+        <v>1.031647763437575</v>
       </c>
       <c r="K8">
-        <v>1.042015510263549</v>
+        <v>1.040937233784338</v>
       </c>
       <c r="L8">
-        <v>1.026718458231054</v>
+        <v>1.026274430295453</v>
       </c>
       <c r="M8">
-        <v>1.046140371456322</v>
+        <v>1.045224598713887</v>
       </c>
       <c r="N8">
-        <v>1.01461286866585</v>
+        <v>1.015664140761173</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.040801727266212</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.040050315670892</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.022898130544593</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -762,46 +831,55 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.003002383023679</v>
+        <v>1.002745076081873</v>
       </c>
       <c r="D9">
-        <v>1.025876596053233</v>
+        <v>1.025148521787255</v>
       </c>
       <c r="E9">
-        <v>1.00968587772262</v>
+        <v>1.009471786159675</v>
       </c>
       <c r="F9">
-        <v>1.028762240795173</v>
+        <v>1.028165923663138</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.046281995699823</v>
+        <v>1.045993703021084</v>
       </c>
       <c r="J9">
-        <v>1.028449563076198</v>
+        <v>1.028201269648172</v>
       </c>
       <c r="K9">
-        <v>1.03856334473331</v>
+        <v>1.037846345494173</v>
       </c>
       <c r="L9">
-        <v>1.022623738926673</v>
+        <v>1.022413036949945</v>
       </c>
       <c r="M9">
-        <v>1.041405291161073</v>
+        <v>1.040817978653492</v>
       </c>
       <c r="N9">
-        <v>1.013363448334048</v>
+        <v>1.014751467019866</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.038357663768934</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.037861417347479</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.022291874390673</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -809,46 +887,55 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9975745992248511</v>
+        <v>0.9975368877965834</v>
       </c>
       <c r="D10">
-        <v>1.022199492936494</v>
+        <v>1.021746634399904</v>
       </c>
       <c r="E10">
-        <v>1.005533390790103</v>
+        <v>1.005511041452104</v>
       </c>
       <c r="F10">
-        <v>1.024199008926351</v>
+        <v>1.023857511474069</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.044970811765748</v>
+        <v>1.044825077911389</v>
       </c>
       <c r="J10">
-        <v>1.025884777764687</v>
+        <v>1.025848572965575</v>
       </c>
       <c r="K10">
-        <v>1.036179172225782</v>
+        <v>1.035734042323703</v>
       </c>
       <c r="L10">
-        <v>1.019803451740042</v>
+        <v>1.019781500193986</v>
       </c>
       <c r="M10">
-        <v>1.038144669285594</v>
+        <v>1.03780896978169</v>
       </c>
       <c r="N10">
-        <v>1.012500161424994</v>
+        <v>1.014238765111267</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.036688691294712</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.036386350609883</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.021868984571812</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -856,46 +943,55 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.995186944791397</v>
+        <v>0.995293854725034</v>
       </c>
       <c r="D11">
-        <v>1.020596436532073</v>
+        <v>1.020300020794315</v>
       </c>
       <c r="E11">
-        <v>1.003716518023066</v>
+        <v>1.003821121571048</v>
       </c>
       <c r="F11">
-        <v>1.022204581369249</v>
+        <v>1.02201320381166</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.044392029610285</v>
+        <v>1.04433242824857</v>
       </c>
       <c r="J11">
-        <v>1.024761332380904</v>
+        <v>1.024863733920681</v>
       </c>
       <c r="K11">
-        <v>1.03514011334975</v>
+        <v>1.034849000426203</v>
       </c>
       <c r="L11">
-        <v>1.018568684958038</v>
+        <v>1.018671335121831</v>
       </c>
       <c r="M11">
-        <v>1.036719558397803</v>
+        <v>1.036531590117561</v>
       </c>
       <c r="N11">
-        <v>1.012123043369849</v>
+        <v>1.014203726098793</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.035986825981521</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.035796599180269</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.021694485813224</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -903,46 +999,55 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.994286316631652</v>
+        <v>0.9944523091181675</v>
       </c>
       <c r="D12">
-        <v>1.019988473086391</v>
+        <v>1.019754358416548</v>
       </c>
       <c r="E12">
-        <v>1.003031648667361</v>
+        <v>1.003188188069096</v>
       </c>
       <c r="F12">
-        <v>1.021450946658175</v>
+        <v>1.021319792120426</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.044169643260197</v>
+        <v>1.044144775305463</v>
       </c>
       <c r="J12">
-        <v>1.02433447384199</v>
+        <v>1.024493327193529</v>
       </c>
       <c r="K12">
-        <v>1.034742489828124</v>
+        <v>1.034512635880862</v>
       </c>
       <c r="L12">
-        <v>1.018100996646414</v>
+        <v>1.018254561268658</v>
       </c>
       <c r="M12">
-        <v>1.036178404907436</v>
+        <v>1.036049628095316</v>
       </c>
       <c r="N12">
-        <v>1.011979233189434</v>
+        <v>1.014206094634362</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.03570569394594</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.035558783981465</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.021627286963778</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -950,46 +1055,55 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9944786338248025</v>
+        <v>0.9946318064058423</v>
       </c>
       <c r="D13">
-        <v>1.020117401528887</v>
+        <v>1.019869814807787</v>
       </c>
       <c r="E13">
-        <v>1.003177669942119</v>
+        <v>1.003322939904235</v>
       </c>
       <c r="F13">
-        <v>1.021611306305489</v>
+        <v>1.021467116697241</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.044216597556249</v>
+        <v>1.04418421089971</v>
       </c>
       <c r="J13">
-        <v>1.024425036754895</v>
+        <v>1.024571649204562</v>
       </c>
       <c r="K13">
-        <v>1.034826297545886</v>
+        <v>1.034583200273142</v>
       </c>
       <c r="L13">
-        <v>1.018200412755726</v>
+        <v>1.018342932372789</v>
       </c>
       <c r="M13">
-        <v>1.036293173632892</v>
+        <v>1.036151588314359</v>
       </c>
       <c r="N13">
-        <v>1.012009638604485</v>
+        <v>1.014204526688904</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.035762458412997</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.035605941735174</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.021641211148341</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -997,46 +1111,55 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.99511213511057</v>
+        <v>0.9952238587015431</v>
       </c>
       <c r="D14">
-        <v>1.020545553320558</v>
+        <v>1.020254235372694</v>
       </c>
       <c r="E14">
-        <v>1.003659533405824</v>
+        <v>1.003768368109485</v>
       </c>
       <c r="F14">
-        <v>1.022141736914129</v>
+        <v>1.021955281262096</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.04437333064238</v>
+        <v>1.04431656733834</v>
       </c>
       <c r="J14">
-        <v>1.024725625157151</v>
+        <v>1.024832629641769</v>
       </c>
       <c r="K14">
-        <v>1.035106615138019</v>
+        <v>1.034820516248776</v>
       </c>
       <c r="L14">
-        <v>1.018529643444272</v>
+        <v>1.018636442794854</v>
       </c>
       <c r="M14">
-        <v>1.03667427112354</v>
+        <v>1.036491141910531</v>
       </c>
       <c r="N14">
-        <v>1.012110968555495</v>
+        <v>1.014203443240496</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.035962074946124</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.035775289819475</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.021688721134602</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1044,46 +1167,55 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9955038560443018</v>
+        <v>0.9955905566281252</v>
       </c>
       <c r="D15">
-        <v>1.020812121249577</v>
+        <v>1.020494248266548</v>
       </c>
       <c r="E15">
-        <v>1.003957987688051</v>
+        <v>1.004044829854875</v>
       </c>
       <c r="F15">
-        <v>1.022470910989212</v>
+        <v>1.022258831854059</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.044471258695736</v>
+        <v>1.044399726009577</v>
       </c>
       <c r="J15">
-        <v>1.024912654428917</v>
+        <v>1.024995724194476</v>
       </c>
       <c r="K15">
-        <v>1.035282132940319</v>
+        <v>1.034969912253884</v>
       </c>
       <c r="L15">
-        <v>1.018734131309767</v>
+        <v>1.018819361754603</v>
       </c>
       <c r="M15">
-        <v>1.036911500675401</v>
+        <v>1.036703176288742</v>
       </c>
       <c r="N15">
-        <v>1.012174225312267</v>
+        <v>1.014205637630143</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.036092036937857</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.035887351375753</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.021718973824167</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1091,46 +1223,55 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9977528221502079</v>
+        <v>0.9977053408432699</v>
       </c>
       <c r="D16">
-        <v>1.022333953623735</v>
+        <v>1.021870466243754</v>
       </c>
       <c r="E16">
-        <v>1.005671982860552</v>
+        <v>1.005641035449615</v>
       </c>
       <c r="F16">
-        <v>1.024356887579324</v>
+        <v>1.024005187761645</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.04502393118835</v>
+        <v>1.044872293613841</v>
       </c>
       <c r="J16">
-        <v>1.025978810837381</v>
+        <v>1.02593321947263</v>
       </c>
       <c r="K16">
-        <v>1.036275810642857</v>
+        <v>1.035820207610007</v>
       </c>
       <c r="L16">
-        <v>1.019903198478061</v>
+        <v>1.019872800087323</v>
       </c>
       <c r="M16">
-        <v>1.038264440412217</v>
+        <v>1.037918692032284</v>
       </c>
       <c r="N16">
-        <v>1.012533514521974</v>
+        <v>1.014250272206816</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.036797764831019</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.03649200068519</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.021889029624888</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1138,46 +1279,55 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9991501818929514</v>
+        <v>0.9990289064401601</v>
       </c>
       <c r="D17">
-        <v>1.023281288835213</v>
+        <v>1.02273438375388</v>
       </c>
       <c r="E17">
-        <v>1.006739163350641</v>
+        <v>1.006643534106385</v>
       </c>
       <c r="F17">
-        <v>1.025530899935431</v>
+        <v>1.025100067649081</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.045365346276298</v>
+        <v>1.045168625419051</v>
       </c>
       <c r="J17">
-        <v>1.026641056573884</v>
+        <v>1.026524453558035</v>
       </c>
       <c r="K17">
-        <v>1.036893065663469</v>
+        <v>1.036355202684233</v>
       </c>
       <c r="L17">
-        <v>1.020630053476204</v>
+        <v>1.020536072258427</v>
       </c>
       <c r="M17">
-        <v>1.039105613885021</v>
+        <v>1.038681863464896</v>
       </c>
       <c r="N17">
-        <v>1.012756690608978</v>
+        <v>1.014314599859766</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.037236770151327</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.036873091012567</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.021996093284035</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1185,46 +1335,55 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9999541307770465</v>
+        <v>0.9997941194660974</v>
       </c>
       <c r="D18">
-        <v>1.02382244975876</v>
+        <v>1.023230186958075</v>
       </c>
       <c r="E18">
-        <v>1.007353092457955</v>
+        <v>1.007223555144046</v>
       </c>
       <c r="F18">
-        <v>1.0262044220595</v>
+        <v>1.025730942797797</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.045557958210855</v>
+        <v>1.045337097253844</v>
       </c>
       <c r="J18">
-        <v>1.027018871108053</v>
+        <v>1.026864906976659</v>
       </c>
       <c r="K18">
-        <v>1.037242267371625</v>
+        <v>1.036659632971691</v>
       </c>
       <c r="L18">
-        <v>1.02104609765795</v>
+        <v>1.020918754760751</v>
       </c>
       <c r="M18">
-        <v>1.039585660065926</v>
+        <v>1.039119831193066</v>
       </c>
       <c r="N18">
-        <v>1.012883478052992</v>
+        <v>1.014364493331738</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.037472045497156</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.037075574875305</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.022056135404881</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1232,46 +1391,55 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.000232405500692</v>
+        <v>1.000059665533536</v>
       </c>
       <c r="D19">
-        <v>1.024013362755423</v>
+        <v>1.023405967161368</v>
       </c>
       <c r="E19">
-        <v>1.007566377399521</v>
+        <v>1.007425699003252</v>
       </c>
       <c r="F19">
-        <v>1.026439779668123</v>
+        <v>1.025952119342864</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.045626915557498</v>
+        <v>1.045398036347427</v>
       </c>
       <c r="J19">
-        <v>1.027152059803138</v>
+        <v>1.026985804911321</v>
       </c>
       <c r="K19">
-        <v>1.037367687399334</v>
+        <v>1.036770109047187</v>
       </c>
       <c r="L19">
-        <v>1.021191921323749</v>
+        <v>1.021053612049805</v>
       </c>
       <c r="M19">
-        <v>1.039755035187192</v>
+        <v>1.039275207924556</v>
       </c>
       <c r="N19">
-        <v>1.012928594435258</v>
+        <v>1.014385567685493</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.037567104873237</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.037160689856861</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.022078656954534</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1279,46 +1447,55 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9990002512300715</v>
+        <v>0.9988865047640496</v>
       </c>
       <c r="D20">
-        <v>1.023179230200081</v>
+        <v>1.022640983425484</v>
       </c>
       <c r="E20">
-        <v>1.006624512217825</v>
+        <v>1.006535478962487</v>
       </c>
       <c r="F20">
-        <v>1.025404643153563</v>
+        <v>1.024981989497343</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.045328548272116</v>
+        <v>1.045136474753174</v>
       </c>
       <c r="J20">
-        <v>1.026569765987475</v>
+        <v>1.026460417367709</v>
       </c>
       <c r="K20">
-        <v>1.036826388404126</v>
+        <v>1.036297068070158</v>
       </c>
       <c r="L20">
-        <v>1.020551869208684</v>
+        <v>1.020464375130117</v>
       </c>
       <c r="M20">
-        <v>1.03901502243738</v>
+        <v>1.038599338079409</v>
       </c>
       <c r="N20">
-        <v>1.012732623761786</v>
+        <v>1.014306081288932</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.037188293424258</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.036830525046234</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.021984384867249</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1326,46 +1503,55 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9949326582783286</v>
+        <v>0.9950722362835558</v>
       </c>
       <c r="D21">
-        <v>1.020428977338862</v>
+        <v>1.020162034532887</v>
       </c>
       <c r="E21">
-        <v>1.003523905292823</v>
+        <v>1.003657444522734</v>
       </c>
       <c r="F21">
-        <v>1.021994293135196</v>
+        <v>1.021832610739006</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.044332225063123</v>
+        <v>1.044290347913774</v>
       </c>
       <c r="J21">
-        <v>1.024643781458364</v>
+        <v>1.024777439896885</v>
       </c>
       <c r="K21">
-        <v>1.035033384163048</v>
+        <v>1.034771240613622</v>
       </c>
       <c r="L21">
-        <v>1.018438822349325</v>
+        <v>1.018569855222569</v>
       </c>
       <c r="M21">
-        <v>1.036570623310379</v>
+        <v>1.036411835793724</v>
       </c>
       <c r="N21">
-        <v>1.01208396768299</v>
+        <v>1.014270521138103</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.035923795907853</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.035755259987809</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.021681121419754</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1373,46 +1559,55 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9923220126409122</v>
+        <v>0.992623450169939</v>
       </c>
       <c r="D22">
-        <v>1.018663848539961</v>
+        <v>1.018570613047718</v>
       </c>
       <c r="E22">
-        <v>1.00154020965264</v>
+        <v>1.001815941107922</v>
       </c>
       <c r="F22">
-        <v>1.019809271199418</v>
+        <v>1.019814891650122</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.043682225522215</v>
+        <v>1.04373647475673</v>
       </c>
       <c r="J22">
-        <v>1.023402938830471</v>
+        <v>1.023690856722711</v>
       </c>
       <c r="K22">
-        <v>1.033874421672532</v>
+        <v>1.033782946031773</v>
       </c>
       <c r="L22">
-        <v>1.017081216313271</v>
+        <v>1.017351509482865</v>
       </c>
       <c r="M22">
-        <v>1.034998258393266</v>
+        <v>1.035003773080535</v>
       </c>
       <c r="N22">
-        <v>1.011665332917747</v>
+        <v>1.014235371132723</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.035090874397909</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.035041709185294</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.021481337501158</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1420,46 +1615,55 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9937020844703419</v>
+        <v>0.993907412717835</v>
       </c>
       <c r="D23">
-        <v>1.019590692921339</v>
+        <v>1.019397689592286</v>
       </c>
       <c r="E23">
-        <v>1.002587023597718</v>
+        <v>1.002778172002015</v>
       </c>
       <c r="F23">
-        <v>1.020960201998267</v>
+        <v>1.020868900740302</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.044022531234772</v>
+        <v>1.044020709841352</v>
       </c>
       <c r="J23">
-        <v>1.024054970563127</v>
+        <v>1.024251356652595</v>
       </c>
       <c r="K23">
-        <v>1.034479730559561</v>
+        <v>1.034290278252874</v>
       </c>
       <c r="L23">
-        <v>1.017795776972528</v>
+        <v>1.017983252358255</v>
       </c>
       <c r="M23">
-        <v>1.035824092585744</v>
+        <v>1.035734465076048</v>
       </c>
       <c r="N23">
-        <v>1.011884606956927</v>
+        <v>1.014210042551877</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.035509230938914</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.035389849705436</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.021582101631085</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1467,46 +1671,55 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9990545546855141</v>
+        <v>0.9989380004072065</v>
       </c>
       <c r="D24">
-        <v>1.023206788192509</v>
+        <v>1.022665156299404</v>
       </c>
       <c r="E24">
-        <v>1.006664275564709</v>
+        <v>1.006572799179761</v>
       </c>
       <c r="F24">
-        <v>1.025444719908368</v>
+        <v>1.025018918091702</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.045335388751149</v>
+        <v>1.045141572645067</v>
       </c>
       <c r="J24">
-        <v>1.026589047387592</v>
+        <v>1.026476992511448</v>
       </c>
       <c r="K24">
-        <v>1.036838265018568</v>
+        <v>1.036305603616688</v>
       </c>
       <c r="L24">
-        <v>1.020575361147294</v>
+        <v>1.020485463983475</v>
       </c>
       <c r="M24">
-        <v>1.039039261410674</v>
+        <v>1.038620471138876</v>
       </c>
       <c r="N24">
-        <v>1.012738008403642</v>
+        <v>1.014305702377008</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.03716933394463</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.036806531703163</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.021984201926147</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1514,43 +1727,52 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.005080886185647</v>
+        <v>1.004743619931383</v>
       </c>
       <c r="D25">
-        <v>1.027301166036571</v>
+        <v>1.026470856427489</v>
       </c>
       <c r="E25">
-        <v>1.011285002755296</v>
+        <v>1.011000979938857</v>
       </c>
       <c r="F25">
-        <v>1.030523143566915</v>
+        <v>1.029832681694923</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.046784873296299</v>
+        <v>1.046443835895662</v>
       </c>
       <c r="J25">
-        <v>1.029438459824807</v>
+        <v>1.029112390176015</v>
       </c>
       <c r="K25">
-        <v>1.039489949981593</v>
+        <v>1.038671688114293</v>
       </c>
       <c r="L25">
-        <v>1.02371062351985</v>
+        <v>1.023430886885683</v>
       </c>
       <c r="M25">
-        <v>1.042665409662911</v>
+        <v>1.041984885408981</v>
       </c>
       <c r="N25">
-        <v>1.013697566165025</v>
+        <v>1.014963374784667</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.039041348157896</v>
+        <v>1.038476305545131</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.022457203751721</v>
       </c>
     </row>
   </sheetData>
